--- a/Data_3427.xlsx
+++ b/Data_3427.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>mobile_number</t>
   </si>
@@ -66,6 +66,42 @@
   </si>
   <si>
     <t>8892747,</t>
+  </si>
+  <si>
+    <t>282031101347/avatar.png</t>
+  </si>
+  <si>
+    <t>8892748,</t>
+  </si>
+  <si>
+    <t>293112800696/avatar.png</t>
+  </si>
+  <si>
+    <t>8892749,</t>
+  </si>
+  <si>
+    <t>292071200744/avatar.png</t>
+  </si>
+  <si>
+    <t>8892750,</t>
+  </si>
+  <si>
+    <t>289070100269/avatar.png</t>
+  </si>
+  <si>
+    <t>8892751,</t>
+  </si>
+  <si>
+    <t>280032201076/avatar.png</t>
+  </si>
+  <si>
+    <t>8892752,</t>
+  </si>
+  <si>
+    <t>284040801723/avatar.png</t>
+  </si>
+  <si>
+    <t>8892753,</t>
   </si>
 </sst>
 </file>
@@ -383,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,6 +541,162 @@
         <v>8892747</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>66218888</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>213</v>
+      </c>
+      <c r="D5">
+        <v>8892748</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>3427</v>
+      </c>
+      <c r="G5">
+        <v>783071</v>
+      </c>
+      <c r="H5">
+        <v>8892748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>99988816</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>214</v>
+      </c>
+      <c r="D6">
+        <v>8892749</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>3427</v>
+      </c>
+      <c r="G6">
+        <v>783072</v>
+      </c>
+      <c r="H6">
+        <v>8892749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>50252205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>216</v>
+      </c>
+      <c r="D7">
+        <v>8892750</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>3427</v>
+      </c>
+      <c r="G7">
+        <v>783073</v>
+      </c>
+      <c r="H7">
+        <v>8892750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>66660319</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>217</v>
+      </c>
+      <c r="D8">
+        <v>8892751</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>3427</v>
+      </c>
+      <c r="G8">
+        <v>783074</v>
+      </c>
+      <c r="H8">
+        <v>8892751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>55551010</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>219</v>
+      </c>
+      <c r="D9">
+        <v>8892752</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>3427</v>
+      </c>
+      <c r="G9">
+        <v>783075</v>
+      </c>
+      <c r="H9">
+        <v>8892752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>97900561</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>221</v>
+      </c>
+      <c r="D10">
+        <v>8892753</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>3427</v>
+      </c>
+      <c r="G10">
+        <v>783076</v>
+      </c>
+      <c r="H10">
+        <v>8892753</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
